--- a/Assignment6_Q3.xlsx
+++ b/Assignment6_Q3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23480" yWindow="-20460" windowWidth="32560" windowHeight="18700" activeTab="1"/>
+    <workbookView xWindow="24200" yWindow="-20700" windowWidth="32560" windowHeight="18700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="5" r:id="rId1"/>

--- a/Assignment6_Q3.xlsx
+++ b/Assignment6_Q3.xlsx
@@ -9,28 +9,38 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24200" yWindow="-20700" windowWidth="32560" windowHeight="18700" activeTab="1"/>
+    <workbookView xWindow="-17320" yWindow="-21140" windowWidth="36820" windowHeight="20500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="5" r:id="rId1"/>
     <sheet name="Assignment6_Q3" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Assignment6_Q3 (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="beta" localSheetId="2">#REF!</definedName>
     <definedName name="beta">#REF!</definedName>
+    <definedName name="d" localSheetId="2">#REF!</definedName>
     <definedName name="d">#REF!</definedName>
+    <definedName name="h" localSheetId="2">#REF!</definedName>
     <definedName name="h" localSheetId="0">Calibration!$C$2</definedName>
     <definedName name="h">#REF!</definedName>
     <definedName name="N">'[1]CDS pricing'!$B$2</definedName>
+    <definedName name="qd" localSheetId="2">#REF!</definedName>
     <definedName name="qd">#REF!</definedName>
+    <definedName name="qu" localSheetId="2">#REF!</definedName>
     <definedName name="qu">#REF!</definedName>
+    <definedName name="r00" localSheetId="2">#REF!</definedName>
     <definedName name="r00">#REF!</definedName>
+    <definedName name="rf" localSheetId="2">#REF!</definedName>
     <definedName name="rf" localSheetId="0">Calibration!$F$2</definedName>
     <definedName name="rf">#REF!</definedName>
+    <definedName name="rho" localSheetId="2">#REF!</definedName>
     <definedName name="rho">#REF!</definedName>
+    <definedName name="S" localSheetId="2">#REF!</definedName>
     <definedName name="S">#REF!</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Calibration!$A$6:$A$16</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -90,6 +100,7 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="u" localSheetId="2">#REF!</definedName>
     <definedName name="u">#REF!</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -105,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>Interest rate</t>
   </si>
@@ -255,6 +266,9 @@
   </si>
   <si>
     <t>Survival Probability q</t>
+  </si>
+  <si>
+    <t>Binomial Coefficients</t>
   </si>
 </sst>
 </file>
@@ -674,7 +688,7 @@
   <dimension ref="A2:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1513,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:AB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A38" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1922,7 +1936,7 @@
         <v>3.8904138405000017E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1967,7 +1981,7 @@
         <v>3.1830658695000014E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2012,7 +2026,7 @@
         <v>2.6043266205000009E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2057,7 +2071,7 @@
         <v>2.1308126895000008E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2106,12 +2120,12 @@
         <v>1.7433922005000008E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2119,7 +2133,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2127,12 +2141,12 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -2167,7 +2181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2216,7 +2230,7 @@
         <v>1.0510100501E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2265,7 +2279,7 @@
         <v>1.04060401E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -2313,8 +2327,12 @@
         <f t="shared" si="1"/>
         <v>1.030301E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <f>COMBIN(4,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2706,973 +2724,4962 @@
         <v>9.5146568760674892E-3</v>
       </c>
     </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>34</v>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" ref="B43:L52" si="2">IF($A43&lt;=B$42,COMBIN(B$42,$A43),"")</f>
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <v>7</v>
-      </c>
-      <c r="J43">
-        <v>8</v>
-      </c>
-      <c r="K43">
-        <v>9</v>
-      </c>
-      <c r="L43">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
         <v>10</v>
-      </c>
-      <c r="L44">
-        <f>K45*(1-K30)</f>
-        <v>0.90230631392602456</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K45">
-        <f>J46*(1-J31)</f>
-        <v>0.91184230685510115</v>
-      </c>
       <c r="L45">
-        <f t="shared" ref="L45" si="2">$B$6*K45*(1-K30)+$B$5*K46*(1-K31)</f>
-        <v>0.90240009272518851</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J46">
-        <f>I47*(1-I32)</f>
-        <v>0.92143075221199233</v>
-      </c>
       <c r="K46">
-        <f t="shared" ref="K46" si="3">$B$6*J46*(1-J31)+$B$5*J47*(1-J32)</f>
-        <v>0.91193642319984258</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46" si="4">$B$6*K46*(1-K31)+$B$5*K47*(1-K32)</f>
-        <v>0.9026778651580234</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I47">
-        <f>H48*(1-H33)</f>
-        <v>0.93107143539851811</v>
-      </c>
       <c r="J47">
-        <f t="shared" ref="J47" si="5">$B$6*I47*(1-I32)+$B$5*I48*(1-I33)</f>
-        <v>0.92152502105173006</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="K47">
-        <f t="shared" ref="K47" si="6">$B$6*J47*(1-J32)+$B$5*J48*(1-J33)</f>
-        <v>0.91221376311150826</v>
+        <f t="shared" si="2"/>
+        <v>83.999999999999986</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47" si="7">$B$6*K47*(1-K32)+$B$5*K48*(1-K33)</f>
-        <v>0.90312646272759156</v>
+        <f t="shared" si="2"/>
+        <v>209.99999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H48">
-        <f>G49*(1-G34)</f>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>209.99999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>83.999999999999986</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <f>IF($A53&lt;=B$42,COMBIN(B$42,$A53),"")</f>
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:L53" si="3">IF($A53&lt;=C$42,COMBIN(C$42,$A53),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <v>4</v>
+      </c>
+      <c r="W57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <v>6</v>
+      </c>
+      <c r="Y57">
+        <v>7</v>
+      </c>
+      <c r="Z57">
+        <v>8</v>
+      </c>
+      <c r="AA57">
+        <v>9</v>
+      </c>
+      <c r="AB57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <f>K59*(1-K30)</f>
+        <v>0.90230631392602456</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="AB58">
+        <f>K59*(1-K30)</f>
+        <v>0.90230631392602456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="K59">
+        <f>J60*(1-J31)</f>
+        <v>0.91184230685510115</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ref="L59" si="4">(K44/(K44+K45))*K59*(1-K30)+(K45/(K44+K45))*K60*(1-K31)</f>
+        <v>0.90272566795566533</v>
+      </c>
+      <c r="Q59">
+        <v>9</v>
+      </c>
+      <c r="AA59">
+        <f>J60*(1-J31)</f>
+        <v>0.91184230685510115</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" ref="AB59:AB66" si="5">$B$6*K59*(1-K30)+$B$5*K60*(1-K31)</f>
+        <v>0.90253928838693609</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="J60">
+        <f>I61*(1-I32)</f>
+        <v>0.92143075221199233</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ref="K60" si="6">(J45/(J45+J46))*J60*(1-J31)+(J46/(J45+J46))*J61*(1-J32)</f>
+        <v>0.91221772725719763</v>
+      </c>
+      <c r="L60">
+        <f t="shared" ref="L60" si="7">(K45/(K45+K46))*K60*(1-K31)+(K46/(K45+K46))*K61*(1-K32)</f>
+        <v>0.90314270870458735</v>
+      </c>
+      <c r="Q60">
+        <v>8</v>
+      </c>
+      <c r="Z60">
+        <f>I61*(1-I32)</f>
+        <v>0.92143075221199233</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" ref="AA60:AA66" si="8">$B$6*J60*(1-J31)+$B$5*J61*(1-J32)</f>
+        <v>0.91205348083128046</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="5"/>
+        <v>0.90300379150830989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="I61">
+        <f>H62*(1-H33)</f>
+        <v>0.93107143539851811</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ref="J61" si="9">(I46/(I46+I47))*I61*(1-I32)+(I47/(I46+I47))*I62*(1-I33)</f>
+        <v>0.92176157351702137</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ref="K61" si="10">(J46/(J46+J47))*J61*(1-J32)+(J47/(J46+J47))*J62*(1-J33)</f>
+        <v>0.91259109282683926</v>
+      </c>
+      <c r="L61">
+        <f t="shared" ref="L61" si="11">(K46/(K46+K47))*K61*(1-K32)+(K47/(K46+K47))*K62*(1-K33)</f>
+        <v>0.90355744968421692</v>
+      </c>
+      <c r="Q61">
+        <v>7</v>
+      </c>
+      <c r="Y61">
+        <f>H62*(1-H33)</f>
+        <v>0.93107143539851811</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" ref="Z61:Z66" si="12">$B$6*I61*(1-I32)+$B$5*I62*(1-I33)</f>
+        <v>0.92161979295772323</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="8"/>
+        <v>0.91247450781991801</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="5"/>
+        <v>0.90346541267980407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <f>G63*(1-G34)</f>
         <v>0.94076413771705836</v>
       </c>
-      <c r="I48">
-        <f t="shared" ref="I48" si="8">$B$6*H48*(1-H33)+$B$5*H49*(1-H34)</f>
-        <v>0.93116548495379425</v>
-      </c>
-      <c r="J48">
-        <f t="shared" ref="J48" si="9">$B$6*I48*(1-I33)+$B$5*I49*(1-I34)</f>
-        <v>0.92180027124540698</v>
-      </c>
-      <c r="K48">
-        <f t="shared" ref="K48" si="10">$B$6*J48*(1-J33)+$B$5*J49*(1-J34)</f>
-        <v>0.91265485512024935</v>
-      </c>
-      <c r="L48">
-        <f t="shared" ref="L48" si="11">$B$6*K48*(1-K33)+$B$5*K49*(1-K34)</f>
-        <v>0.90371369521396527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="I62">
+        <f t="shared" ref="I62" si="13">(H47/(H47+H48))*H62*(1-H33)+(H48/(H47+H48))*H63*(1-H34)</f>
+        <v>0.93135699207343026</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="J62" si="14">(I47/(I47+I48))*I62*(1-I33)+(I48/(I47+I48))*I63*(1-I34)</f>
+        <v>0.92209060711556212</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ref="K62" si="15">(J47/(J47+J48))*J62*(1-J33)+(J48/(J47+J48))*J63*(1-J34)</f>
+        <v>0.91296241550060064</v>
+      </c>
+      <c r="L62">
+        <f t="shared" ref="L62" si="16">(K47/(K47+K48))*K62*(1-K33)+(K48/(K47+K48))*K63*(1-K34)</f>
+        <v>0.90396990433067059</v>
+      </c>
+      <c r="Q62">
+        <v>6</v>
+      </c>
+      <c r="X62">
+        <f>G63*(1-G34)</f>
+        <v>0.94076413771705836</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" ref="Y62:Y66" si="17">$B$6*H62*(1-H33)+$B$5*H63*(1-H34)</f>
+        <v>0.93123801012555019</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="12"/>
+        <v>0.92199668264485946</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="8"/>
+        <v>0.91289290183354466</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="5"/>
+        <v>0.90392417114069823</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>5</v>
       </c>
-      <c r="G49">
-        <f>F50*(1-F35)</f>
+      <c r="G63">
+        <f>F64*(1-F35)</f>
         <v>0.95050863641059791</v>
       </c>
-      <c r="H49">
-        <f t="shared" ref="H49" si="12">$B$6*G49*(1-G34)+$B$5*G50*(1-G35)</f>
-        <v>0.94085721900009045</v>
-      </c>
-      <c r="I49">
-        <f t="shared" ref="I49" si="13">$B$6*H49*(1-H34)+$B$5*H50*(1-H35)</f>
-        <v>0.9314356733926844</v>
-      </c>
-      <c r="J49">
-        <f t="shared" ref="J49" si="14">$B$6*I49*(1-I34)+$B$5*I50*(1-I35)</f>
-        <v>0.9222272184685989</v>
-      </c>
-      <c r="K49">
-        <f t="shared" ref="K49" si="15">$B$6*J49*(1-J34)+$B$5*J50*(1-J35)</f>
-        <v>0.9132140109903597</v>
-      </c>
-      <c r="L49">
-        <f t="shared" ref="L49" si="16">$B$6*K49*(1-K34)+$B$5*K50*(1-K35)</f>
-        <v>0.90437897514862653</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="H63">
+        <f t="shared" ref="H63" si="18">(G48/(G48+G49))*G63*(1-G34)+(G49/(G48+G49))*G64*(1-G35)</f>
+        <v>0.94100376425171406</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ref="I63" si="19">(H48/(H48+H49))*H63*(1-H34)+(H49/(H48+H49))*H64*(1-H35)</f>
+        <v>0.93164103689604549</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63" si="20">(I48/(I48+I49))*I63*(1-I34)+(I49/(I48+I49))*I64*(1-I35)</f>
+        <v>0.92241786325357411</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ref="K63" si="21">(J48/(J48+J49))*J63*(1-J34)+(J49/(J48+J49))*J64*(1-J35)</f>
+        <v>0.9133317071482262</v>
+      </c>
+      <c r="L63">
+        <f t="shared" ref="L63" si="22">(K48/(K48+K49))*K63*(1-K34)+(K49/(K48+K49))*K64*(1-K35)</f>
+        <v>0.90438008600509256</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+      <c r="W63">
+        <f>F64*(1-F35)</f>
+        <v>0.95050863641059791</v>
+      </c>
+      <c r="X63">
+        <f t="shared" ref="X63:X66" si="23">$B$6*G63*(1-G34)+$B$5*G64*(1-G35)</f>
+        <v>0.94090791363785176</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="17"/>
+        <v>0.93157010128300655</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="12"/>
+        <v>0.92237119692011227</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="8"/>
+        <v>0.91330868071687488</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="5"/>
+        <v>0.90438008600509256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>4</v>
       </c>
-      <c r="F50">
-        <f>E51*(1-E36)</f>
+      <c r="F64">
+        <f>E65*(1-E36)</f>
         <v>0.960304704703276</v>
       </c>
-      <c r="G50">
-        <f t="shared" ref="G50" si="17">$B$6*F50*(1-F35)+$B$5*F51*(1-F36)</f>
-        <v>0.95059923843605532</v>
-      </c>
-      <c r="H50">
-        <f t="shared" ref="H50" si="18">$B$6*G50*(1-G35)+$B$5*G51*(1-G36)</f>
-        <v>0.94111709493514328</v>
-      </c>
-      <c r="I50">
-        <f t="shared" ref="I50" si="19">$B$6*H50*(1-H35)+$B$5*H51*(1-H36)</f>
-        <v>0.93183804074638177</v>
-      </c>
-      <c r="J50">
-        <f t="shared" ref="J50" si="20">$B$6*I50*(1-I35)+$B$5*I51*(1-I36)</f>
-        <v>0.92274272567540738</v>
-      </c>
-      <c r="K50">
-        <f t="shared" ref="K50" si="21">$B$6*J50*(1-J35)+$B$5*J51*(1-J36)</f>
-        <v>0.91381441985991929</v>
-      </c>
-      <c r="L50">
-        <f t="shared" ref="L50" si="22">$B$6*K50*(1-K35)+$B$5*K51*(1-K36)</f>
-        <v>0.90503957753809783</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="G64">
+        <f t="shared" ref="G64" si="24">(F49/(F49+F50))*F64*(1-F35)+(F50/(F49+F50))*F65*(1-F36)</f>
+        <v>0.95070166740394912</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64" si="25">(G49/(G49+G50))*G64*(1-G35)+(G50/(G49+G50))*G65*(1-G36)</f>
+        <v>0.94124216356544177</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ref="I64" si="26">(H49/(H49+H50))*H64*(1-H35)+(H50/(H49+H50))*H65*(1-H36)</f>
+        <v>0.93192357830430794</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ref="J64" si="27">(I49/(I49+I50))*I64*(1-I35)+(I50/(I49+I50))*I65*(1-I36)</f>
+        <v>0.92274335212023917</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ref="K64" si="28">(J49/(J49+J50))*J64*(1-J35)+(J50/(J49+J50))*J65*(1-J36)</f>
+        <v>0.91369897957294477</v>
+      </c>
+      <c r="L64">
+        <f t="shared" ref="L64" si="29">(K49/(K49+K50))*K64*(1-K35)+(K50/(K49+K50))*K65*(1-K36)</f>
+        <v>0.90478800799399262</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="V64">
+        <f>E65*(1-E36)</f>
+        <v>0.960304704703276</v>
+      </c>
+      <c r="W64">
+        <f t="shared" ref="W64:W66" si="30">$B$6*F64*(1-F35)+$B$5*F65*(1-F36)</f>
+        <v>0.95062928078144238</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="23"/>
+        <v>0.94119454506374267</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="17"/>
+        <v>0.93190008323044826</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="12"/>
+        <v>0.92274335212023917</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="8"/>
+        <v>0.91372186219468332</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="5"/>
+        <v>0.90483317626258453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>3</v>
       </c>
-      <c r="E51">
-        <f>D52*(1-D37)</f>
+      <c r="E65">
+        <f>D66*(1-D37)</f>
         <v>0.97015211184142591</v>
       </c>
-      <c r="F51">
-        <f t="shared" ref="F51" si="23">$B$6*E51*(1-E36)+$B$5*E52*(1-E37)</f>
-        <v>0.96038977721134722</v>
-      </c>
-      <c r="G51">
-        <f t="shared" ref="G51" si="24">$B$6*F51*(1-F36)+$B$5*F52*(1-F37)</f>
-        <v>0.95083971041243143</v>
-      </c>
-      <c r="H51">
-        <f t="shared" ref="H51" si="25">$B$6*G51*(1-G36)+$B$5*G52*(1-G37)</f>
-        <v>0.94147905981461144</v>
-      </c>
-      <c r="I51">
-        <f t="shared" ref="I51" si="26">$B$6*H51*(1-H36)+$B$5*H52*(1-H37)</f>
-        <v>0.93228888817045441</v>
-      </c>
-      <c r="J51">
-        <f t="shared" ref="J51" si="27">$B$6*I51*(1-I36)+$B$5*I52*(1-I37)</f>
-        <v>0.92325467671419714</v>
-      </c>
-      <c r="K51">
-        <f t="shared" ref="K51" si="28">$B$6*J51*(1-J36)+$B$5*J52*(1-J37)</f>
-        <v>0.91436572559707163</v>
-      </c>
-      <c r="L51">
-        <f t="shared" ref="L51" si="29">$B$6*K51*(1-K36)+$B$5*K52*(1-K37)</f>
-        <v>0.90561423885368786</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="F65">
+        <f t="shared" ref="F65" si="31">(E50/(E50+E51))*E65*(1-E36)+(E51/(E50+E51))*E66*(1-E37)</f>
+        <v>0.96045047494927449</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65" si="32">(F50/(F50+F51))*F65*(1-F36)+(F51/(F50+F51))*F66*(1-F37)</f>
+        <v>0.95089376463229403</v>
+      </c>
+      <c r="H65">
+        <f>(G50/(G50+G51))*G65*(1-G36)+(G51/(G50+G51))*G66*(1-G37)</f>
+        <v>0.94147934216915741</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ref="I65" si="33">(H50/(H50+H51))*H65*(1-H36)+(H51/(H50+H51))*H66*(1-H37)</f>
+        <v>0.93220462469105203</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65" si="34">(I50/(I50+I51))*I65*(1-I36)+(I51/(I50+I51))*I66*(1-I37)</f>
+        <v>0.92306708384823311</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65" si="35">(J50/(J50+J51))*J65*(1-J36)+(J51/(J50+J51))*J66*(1-J37)</f>
+        <v>0.91406424451178625</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ref="L65" si="36">(K50/(K50+K51))*K65*(1-K36)+(K51/(K50+K51))*K66*(1-K37)</f>
+        <v>0.90519368350958485</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <f>D66*(1-D37)</f>
+        <v>0.97015211184142591</v>
+      </c>
+      <c r="V65">
+        <f t="shared" ref="U65:AB67" si="37">$B$6*E65*(1-E36)+$B$5*E66*(1-E37)</f>
+        <v>0.96040188486727496</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="30"/>
+        <v>0.95086979138562622</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="23"/>
+        <v>0.94147934216915741</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="17"/>
+        <v>0.93222797068164964</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="12"/>
+        <v>0.92311316446880465</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="8"/>
+        <v>0.91413246387251468</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="5"/>
+        <v>0.90528346077894528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>2</v>
       </c>
-      <c r="D52">
-        <f>C53*(1-C38)</f>
+      <c r="D66">
+        <f>C67*(1-C38)</f>
         <v>0.98005062313509028</v>
       </c>
-      <c r="E52">
-        <f t="shared" ref="E52:L53" si="30">$B$6*D52*(1-D37)+$B$5*D53*(1-D38)</f>
+      <c r="E66">
+        <f>(D51/(D51+D52))*D66*(1-D37)+(D52/(D51+D52))*D67*(1-D38)</f>
+        <v>0.97024995641463907</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66" si="38">(E51/(E51+E52))*E66*(1-E37)+(E52/(E51+E52))*E67*(1-E38)</f>
+        <v>0.96059561375653091</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66" si="39">(F51/(F51+F52))*F66*(1-F37)+(F52/(F51+F52))*F67*(1-F38)</f>
+        <v>0.95108493255891946</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66" si="40">(G51/(G51+G52))*G66*(1-G37)+(G52/(G51+G52))*G67*(1-G38)</f>
+        <v>0.94171530654199176</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66" si="41">(H51/(H51+H52))*H66*(1-H37)+(H52/(H51+H52))*H67*(1-H38)</f>
+        <v>0.93248418440420777</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66" si="42">(I51/(I51+I52))*I66*(1-I37)+(I52/(I51+I52))*I67*(1-I38)</f>
+        <v>0.9233890685139976</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66" si="43">(J51/(J51+J52))*J66*(1-J37)+(J52/(J51+J52))*J67*(1-J38)</f>
+        <v>0.91442751363589636</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66" si="44">(K51/(K51+K52))*K66*(1-K37)+(K52/(K51+K52))*K67*(1-K38)</f>
+        <v>0.90559712569012485</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <f>C67*(1-C38)</f>
+        <v>0.98005062313509028</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="37"/>
         <v>0.97022549527133584</v>
       </c>
-      <c r="F52">
-        <f t="shared" ref="F52" si="31">$B$6*E52*(1-E37)+$B$5*E53*(1-E38)</f>
-        <v>0.96059553572055578</v>
-      </c>
-      <c r="G52">
-        <f t="shared" ref="G52" si="32">$B$6*F52*(1-F37)+$B$5*F53*(1-F38)</f>
-        <v>0.95113841096149832</v>
-      </c>
-      <c r="H52">
-        <f t="shared" ref="H52" si="33">$B$6*G52*(1-G37)+$B$5*G53*(1-G38)</f>
-        <v>0.94183864219568791</v>
-      </c>
-      <c r="I52">
-        <f t="shared" ref="I52" si="34">$B$6*H52*(1-H37)+$B$5*H53*(1-H38)</f>
-        <v>0.93268576985888885</v>
-      </c>
-      <c r="J52">
-        <f t="shared" ref="J52" si="35">$B$6*I52*(1-I37)+$B$5*I53*(1-I38)</f>
-        <v>0.92367263625562479</v>
-      </c>
-      <c r="K52">
-        <f t="shared" ref="K52" si="36">$B$6*J52*(1-J37)+$B$5*J53*(1-J38)</f>
-        <v>0.91479413498594009</v>
-      </c>
-      <c r="L52">
-        <f t="shared" ref="L52" si="37">$B$6*K52*(1-K37)+$B$5*K53*(1-K38)</f>
-        <v>0.90604639344254601</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="V66">
+        <f t="shared" si="37"/>
+        <v>0.96059561375653091</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="30"/>
+        <v>0.95110875129390804</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="23"/>
+        <v>0.94176231792825038</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="17"/>
+        <v>0.93255377824548835</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="12"/>
+        <v>0.92348065007690439</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="8"/>
+        <v>0.91454050323739211</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="5"/>
+        <v>0.90573095829679295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>1</v>
       </c>
-      <c r="C53">
-        <f>B54*(1-B39)</f>
+      <c r="C67">
+        <f>B68*(1-B39)</f>
         <v>0.99</v>
       </c>
-      <c r="D53">
-        <f>$B$6*C53*(1-C38)+$B$5*C54*(1-C39)</f>
+      <c r="D67">
+        <f>(C52/(C52+C53))*C67*(1-C38)+(C53/(C52+C53))*C68*(1-C39)</f>
         <v>0.98009987747600569</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="30"/>
+      <c r="E67">
+        <f>(D52/(D52+D53))*D67*(1-D38)+(D53/(D52+D53))*D68*(1-D39)</f>
+        <v>0.97034748078991329</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:L67" si="45">(E52/(E52+E53))*E67*(1-E38)+(E53/(E52+E53))*E68*(1-E39)</f>
+        <v>0.96074012341853909</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="45"/>
+        <v>0.95127517563035036</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="45"/>
+        <v>0.9419500631314065</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="45"/>
+        <v>0.93276226574700605</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="45"/>
+        <v>0.92370931613801011</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="45"/>
+        <v>0.91478879855084871</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="45"/>
+        <v>0.90599834760024522</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <f>B68*(1-B39)</f>
+        <v>0.99</v>
+      </c>
+      <c r="T67">
+        <f>$B$6*C67*(1-C38)+$B$5*C68*(1-C39)</f>
+        <v>0.98009987747600569</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="37"/>
         <v>0.9703717818342471</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="30"/>
-        <v>0.9608001139752429</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="30"/>
-        <v>0.95137586991799772</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="30"/>
-        <v>0.94209333635131209</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="30"/>
-        <v>0.93294845478575827</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="30"/>
-        <v>0.92393801139043608</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="30"/>
-        <v>0.91505923543794132</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="30"/>
-        <v>0.90630959997619764</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="V67">
+        <f t="shared" si="37"/>
+        <v>0.96078808435529028</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="37"/>
+        <v>0.95134617162259971</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="37"/>
+        <v>0.9420434852201669</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="37"/>
+        <v>0.93287752042666283</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="37"/>
+        <v>0.92384582494388601</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="37"/>
+        <v>0.9149459976585228</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="37"/>
+        <v>0.9061756874362672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>0</v>
       </c>
-      <c r="B54">
+      <c r="B68">
         <v>1</v>
       </c>
-      <c r="C54">
-        <f>B54*(1-B39)</f>
+      <c r="C68">
+        <f>B68*(1-B39)</f>
         <v>0.99</v>
       </c>
-      <c r="D54">
-        <f t="shared" ref="D54:L54" si="38">C54*(1-C39)</f>
+      <c r="D68">
+        <f t="shared" ref="D68:L68" si="46">C68*(1-C39)</f>
         <v>0.98014913181692109</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="38"/>
+      <c r="E68">
+        <f t="shared" si="46"/>
         <v>0.97044468496724856</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="38"/>
+      <c r="F68">
+        <f t="shared" si="46"/>
         <v>0.96088400622879278</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="38"/>
+      <c r="G68">
+        <f t="shared" si="46"/>
         <v>0.95146449827634894</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="38"/>
+      <c r="H68">
+        <f t="shared" si="46"/>
         <v>0.94218361835330755</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="38"/>
+      <c r="I68">
+        <f t="shared" si="46"/>
         <v>0.93303887697818222</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="38"/>
+      <c r="J68">
+        <f t="shared" si="46"/>
         <v>0.92402783668505384</v>
       </c>
-      <c r="K54">
-        <f t="shared" si="38"/>
+      <c r="K68">
+        <f t="shared" si="46"/>
         <v>0.91514811079696068</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="38"/>
+      <c r="L68">
+        <f t="shared" si="46"/>
         <v>0.90639736223129463</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <f>B68*(1-B39)</f>
+        <v>0.99</v>
+      </c>
+      <c r="T68">
+        <f t="shared" ref="T68:AB68" si="47">C68*(1-C39)</f>
+        <v>0.98014913181692109</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="47"/>
+        <v>0.97044468496724856</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="47"/>
+        <v>0.96088400622879278</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="47"/>
+        <v>0.95146449827634894</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="47"/>
+        <v>0.94218361835330755</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="47"/>
+        <v>0.93303887697818222</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="47"/>
+        <v>0.92402783668505384</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="47"/>
+        <v>0.91514811079696068</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="47"/>
+        <v>0.90639736223129463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>32</v>
       </c>
-      <c r="B58">
+      <c r="B72">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>31</v>
       </c>
-      <c r="B59">
+      <c r="B73">
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>33</v>
       </c>
-      <c r="B60">
+      <c r="B74">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B62">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B76">
         <v>0</v>
       </c>
-      <c r="C62">
+      <c r="C76">
         <v>1</v>
       </c>
-      <c r="D62">
+      <c r="D76">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E76">
         <v>3</v>
       </c>
-      <c r="F62">
+      <c r="F76">
         <v>4</v>
       </c>
-      <c r="G62">
+      <c r="G76">
         <v>5</v>
       </c>
-      <c r="H62">
+      <c r="H76">
         <v>6</v>
       </c>
-      <c r="I62">
+      <c r="I76">
         <v>7</v>
       </c>
-      <c r="J62">
+      <c r="J76">
         <v>8</v>
       </c>
-      <c r="K62">
+      <c r="K76">
         <v>9</v>
       </c>
-      <c r="L62">
+      <c r="L76">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>10</v>
       </c>
-      <c r="B63" t="str">
-        <f xml:space="preserve"> IF($A63&lt;=B$62,($B$5*(1-B29)*C62+$B$6*(1-B29)*C63+$B$5*B29*$B$59+$B$6*B29*$B$59)/(1 + B10),"")</f>
-        <v/>
-      </c>
-      <c r="C63" t="str">
-        <f xml:space="preserve"> IF($A63&lt;=C$62,($B$5*(1-C29)*D62+$B$6*(1-C29)*D63+$B$5*C29*$B$59+$B$6*C29*$B$59)/(1 + C10),"")</f>
-        <v/>
-      </c>
-      <c r="D63" t="str">
-        <f xml:space="preserve"> IF($A63&lt;=D$62,($B$5*(1-D29)*E62+$B$6*(1-D29)*E63+$B$5*D29*$B$59+$B$6*D29*$B$59)/(1 + D10),"")</f>
-        <v/>
-      </c>
-      <c r="E63" t="str">
-        <f xml:space="preserve"> IF($A63&lt;=E$62,($B$5*(1-E29)*F62+$B$6*(1-E29)*F63+$B$5*E29*$B$59+$B$6*E29*$B$59)/(1 + E10),"")</f>
-        <v/>
-      </c>
-      <c r="F63" t="str">
-        <f xml:space="preserve"> IF($A63&lt;=F$62,($B$5*(1-F29)*G62+$B$6*(1-F29)*G63+$B$5*F29*$B$59+$B$6*F29*$B$59)/(1 + F10),"")</f>
-        <v/>
-      </c>
-      <c r="G63" t="str">
-        <f xml:space="preserve"> IF($A63&lt;=G$62,($B$5*(1-G29)*H62+$B$6*(1-G29)*H63+$B$5*G29*$B$59+$B$6*G29*$B$59)/(1 + G10),"")</f>
-        <v/>
-      </c>
-      <c r="H63" t="str">
-        <f xml:space="preserve"> IF($A63&lt;=H$62,($B$5*(1-H29)*I62+$B$6*(1-H29)*I63+$B$5*H29*$B$59+$B$6*H29*$B$59)/(1 + H10),"")</f>
-        <v/>
-      </c>
-      <c r="I63" t="str">
-        <f xml:space="preserve"> IF($A63&lt;=I$62,($B$5*(1-I29)*J62+$B$6*(1-I29)*J63+$B$5*I29*$B$59+$B$6*I29*$B$59)/(1 + I10),"")</f>
-        <v/>
-      </c>
-      <c r="J63" t="str">
-        <f xml:space="preserve"> IF($A63&lt;=J$62,($B$5*(1-J29)*K62+$B$6*(1-J29)*K63+$B$5*J29*$B$59+$B$6*J29*$B$59)/(1 + J10),"")</f>
-        <v/>
-      </c>
-      <c r="K63" t="str">
-        <f xml:space="preserve"> IF($A63&lt;=K$62,($B$5*(1-K29)*L62+$B$6*(1-K29)*L63+$B$5*K29*$B$59+$B$6*K29*$B$59)/(1 + K10),"")</f>
-        <v/>
-      </c>
-      <c r="L63">
-        <f>L44*$B$60+(1-L44)*$B$59*$B$60</f>
-        <v>92.184505114081972</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="B77" t="str">
+        <f t="shared" ref="B77:K77" si="48" xml:space="preserve"> IF($A77&lt;=B$76,($B$5*(1-B29)*C76+$B$6*(1-B29)*C77+$B$5*B29*$B$73+$B$6*B29*$B$73)/(1 + B10),"")</f>
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L77">
+        <f>L58*$B$74+K59*K30*$B$73*$B$74</f>
+        <v>90.421351251183992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>9</v>
       </c>
-      <c r="B64" t="str">
-        <f xml:space="preserve"> IF($A64&lt;=B$62,($B$5*(1-B30)*C63+$B$6*(1-B30)*C64+$B$5*B30*$B$59+$B$6*B30*$B$59)/(1 + B11),"")</f>
-        <v/>
-      </c>
-      <c r="C64" t="str">
-        <f xml:space="preserve"> IF($A64&lt;=C$62,($B$5*(1-C30)*D63+$B$6*(1-C30)*D64+$B$5*C30*$B$59+$B$6*C30*$B$59)/(1 + C11),"")</f>
-        <v/>
-      </c>
-      <c r="D64" t="str">
-        <f xml:space="preserve"> IF($A64&lt;=D$62,($B$5*(1-D30)*E63+$B$6*(1-D30)*E64+$B$5*D30*$B$59+$B$6*D30*$B$59)/(1 + D11),"")</f>
-        <v/>
-      </c>
-      <c r="E64" t="str">
-        <f xml:space="preserve"> IF($A64&lt;=E$62,($B$5*(1-E30)*F63+$B$6*(1-E30)*F64+$B$5*E30*$B$59+$B$6*E30*$B$59)/(1 + E11),"")</f>
-        <v/>
-      </c>
-      <c r="F64" t="str">
-        <f xml:space="preserve"> IF($A64&lt;=F$62,($B$5*(1-F30)*G63+$B$6*(1-F30)*G64+$B$5*F30*$B$59+$B$6*F30*$B$59)/(1 + F11),"")</f>
-        <v/>
-      </c>
-      <c r="G64" t="str">
-        <f xml:space="preserve"> IF($A64&lt;=G$62,($B$5*(1-G30)*H63+$B$6*(1-G30)*H64+$B$5*G30*$B$59+$B$6*G30*$B$59)/(1 + G11),"")</f>
-        <v/>
-      </c>
-      <c r="H64" t="str">
-        <f xml:space="preserve"> IF($A64&lt;=H$62,($B$5*(1-H30)*I63+$B$6*(1-H30)*I64+$B$5*H30*$B$59+$B$6*H30*$B$59)/(1 + H11),"")</f>
-        <v/>
-      </c>
-      <c r="I64" t="str">
-        <f xml:space="preserve"> IF($A64&lt;=I$62,($B$5*(1-I30)*J63+$B$6*(1-I30)*J64+$B$5*I30*$B$59+$B$6*I30*$B$59)/(1 + I11),"")</f>
-        <v/>
-      </c>
-      <c r="J64" t="str">
-        <f xml:space="preserve"> IF($A64&lt;=J$62,($B$5*(1-J30)*K63+$B$6*(1-J30)*K64+$B$5*J30*$B$59+$B$6*J30*$B$59)/(1 + J11),"")</f>
-        <v/>
-      </c>
-      <c r="K64">
-        <f ca="1">($B$5*L63+$B$6*L64)/(1+K11)</f>
-        <v>82.465758968707235</v>
-      </c>
-      <c r="L64">
-        <f t="shared" ref="L64:L73" si="39">L45*$B$60+(1-L45)*$B$59*$B$60</f>
-        <v>92.192007418015081</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="B78" t="str">
+        <f t="shared" ref="B78:J78" si="49" xml:space="preserve"> IF($A78&lt;=B$76,($B$5*(1-B30)*C77+$B$6*(1-B30)*C78+$B$5*B30*$B$73+$B$6*B30*$B$73)/(1 + B11),"")</f>
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K78">
+        <f ca="1">($B$5*L77+$B$6*L78)/(1+K11)</f>
+        <v>80.903225507048617</v>
+      </c>
+      <c r="L78">
+        <f>L59*$B$74+((K44/(K44+K45))*K59*K30+(K45/(K44+K45))*K60*K31)*$B$73*$B$74</f>
+        <v>90.461657140792994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>8</v>
       </c>
-      <c r="B65" t="str">
-        <f xml:space="preserve"> IF($A65&lt;=B$62,($B$5*(1-B31)*C64+$B$6*(1-B31)*C65+$B$5*B31*$B$59+$B$6*B31*$B$59)/(1 + B12),"")</f>
-        <v/>
-      </c>
-      <c r="C65" t="str">
-        <f xml:space="preserve"> IF($A65&lt;=C$62,($B$5*(1-C31)*D64+$B$6*(1-C31)*D65+$B$5*C31*$B$59+$B$6*C31*$B$59)/(1 + C12),"")</f>
-        <v/>
-      </c>
-      <c r="D65" t="str">
-        <f xml:space="preserve"> IF($A65&lt;=D$62,($B$5*(1-D31)*E64+$B$6*(1-D31)*E65+$B$5*D31*$B$59+$B$6*D31*$B$59)/(1 + D12),"")</f>
-        <v/>
-      </c>
-      <c r="E65" t="str">
-        <f xml:space="preserve"> IF($A65&lt;=E$62,($B$5*(1-E31)*F64+$B$6*(1-E31)*F65+$B$5*E31*$B$59+$B$6*E31*$B$59)/(1 + E12),"")</f>
-        <v/>
-      </c>
-      <c r="F65" t="str">
-        <f xml:space="preserve"> IF($A65&lt;=F$62,($B$5*(1-F31)*G64+$B$6*(1-F31)*G65+$B$5*F31*$B$59+$B$6*F31*$B$59)/(1 + F12),"")</f>
-        <v/>
-      </c>
-      <c r="G65" t="str">
-        <f xml:space="preserve"> IF($A65&lt;=G$62,($B$5*(1-G31)*H64+$B$6*(1-G31)*H65+$B$5*G31*$B$59+$B$6*G31*$B$59)/(1 + G12),"")</f>
-        <v/>
-      </c>
-      <c r="H65" t="str">
-        <f xml:space="preserve"> IF($A65&lt;=H$62,($B$5*(1-H31)*I64+$B$6*(1-H31)*I65+$B$5*H31*$B$59+$B$6*H31*$B$59)/(1 + H12),"")</f>
-        <v/>
-      </c>
-      <c r="I65" t="str">
-        <f xml:space="preserve"> IF($A65&lt;=I$62,($B$5*(1-I31)*J64+$B$6*(1-I31)*J65+$B$5*I31*$B$59+$B$6*I31*$B$59)/(1 + I12),"")</f>
-        <v/>
-      </c>
-      <c r="J65">
-        <f t="shared" ref="J65:K73" ca="1" si="40">($B$5*K64+$B$6*K65)/(1+J12)</f>
-        <v>75.216932748825727</v>
-      </c>
-      <c r="K65">
-        <f t="shared" ca="1" si="40"/>
-        <v>84.091524065234736</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="39"/>
-        <v>92.214229212641868</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="B79" t="str">
+        <f t="shared" ref="B79:I79" si="50" xml:space="preserve"> IF($A79&lt;=B$76,($B$5*(1-B31)*C78+$B$6*(1-B31)*C79+$B$5*B31*$B$73+$B$6*B31*$B$73)/(1 + B12),"")</f>
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J79">
+        <f ca="1">($B$5*K78+$B$6*K79)/(1+J12)</f>
+        <v>73.802298226465226</v>
+      </c>
+      <c r="K79">
+        <f ca="1">($B$5*L78+$B$6*L79)/(1+K12)</f>
+        <v>82.521549008935182</v>
+      </c>
+      <c r="L79">
+        <f t="shared" ref="L79:L87" si="51">L60*$B$74+((K45/(K45+K46))*K60*K31+(K46/(K45+K46))*K61*K32)*$B$73*$B$74</f>
+        <v>90.501745090625207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>7</v>
       </c>
-      <c r="B66" t="str">
-        <f xml:space="preserve"> IF($A66&lt;=B$62,($B$5*(1-B32)*C65+$B$6*(1-B32)*C66+$B$5*B32*$B$59+$B$6*B32*$B$59)/(1 + B13),"")</f>
-        <v/>
-      </c>
-      <c r="C66" t="str">
-        <f xml:space="preserve"> IF($A66&lt;=C$62,($B$5*(1-C32)*D65+$B$6*(1-C32)*D66+$B$5*C32*$B$59+$B$6*C32*$B$59)/(1 + C13),"")</f>
-        <v/>
-      </c>
-      <c r="D66" t="str">
-        <f xml:space="preserve"> IF($A66&lt;=D$62,($B$5*(1-D32)*E65+$B$6*(1-D32)*E66+$B$5*D32*$B$59+$B$6*D32*$B$59)/(1 + D13),"")</f>
-        <v/>
-      </c>
-      <c r="E66" t="str">
-        <f xml:space="preserve"> IF($A66&lt;=E$62,($B$5*(1-E32)*F65+$B$6*(1-E32)*F66+$B$5*E32*$B$59+$B$6*E32*$B$59)/(1 + E13),"")</f>
-        <v/>
-      </c>
-      <c r="F66" t="str">
-        <f xml:space="preserve"> IF($A66&lt;=F$62,($B$5*(1-F32)*G65+$B$6*(1-F32)*G66+$B$5*F32*$B$59+$B$6*F32*$B$59)/(1 + F13),"")</f>
-        <v/>
-      </c>
-      <c r="G66" t="str">
-        <f xml:space="preserve"> IF($A66&lt;=G$62,($B$5*(1-G32)*H65+$B$6*(1-G32)*H66+$B$5*G32*$B$59+$B$6*G32*$B$59)/(1 + G13),"")</f>
-        <v/>
-      </c>
-      <c r="H66" t="str">
-        <f xml:space="preserve"> IF($A66&lt;=H$62,($B$5*(1-H32)*I65+$B$6*(1-H32)*I66+$B$5*H32*$B$59+$B$6*H32*$B$59)/(1 + H13),"")</f>
-        <v/>
-      </c>
-      <c r="I66">
-        <f t="shared" ref="I66" ca="1" si="41">($B$5*J65+$B$6*J66)/(1+I13)</f>
-        <v>69.785197089720256</v>
-      </c>
-      <c r="J66">
-        <f t="shared" ca="1" si="40"/>
-        <v>77.952622120175619</v>
-      </c>
-      <c r="K66">
-        <f t="shared" ca="1" si="40"/>
-        <v>85.485404869504691</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="39"/>
-        <v>92.25011701820732</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="B80" t="str">
+        <f t="shared" ref="B80:H80" si="52" xml:space="preserve"> IF($A80&lt;=B$76,($B$5*(1-B32)*C79+$B$6*(1-B32)*C80+$B$5*B32*$B$73+$B$6*B32*$B$73)/(1 + B13),"")</f>
+        <v/>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="I80">
+        <f t="shared" ref="I80" ca="1" si="53">($B$5*J79+$B$6*J80)/(1+I13)</f>
+        <v>68.479830813383018</v>
+      </c>
+      <c r="J80">
+        <f ca="1">($B$5*K79+$B$6*K80)/(1+J13)</f>
+        <v>76.502145131415446</v>
+      </c>
+      <c r="K80">
+        <f ca="1">($B$5*L79+$B$6*L80)/(1+K13)</f>
+        <v>83.900034710280082</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="51"/>
+        <v>90.541616348706796</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>6</v>
       </c>
-      <c r="B67" t="str">
-        <f xml:space="preserve"> IF($A67&lt;=B$62,($B$5*(1-B33)*C66+$B$6*(1-B33)*C67+$B$5*B33*$B$59+$B$6*B33*$B$59)/(1 + B14),"")</f>
-        <v/>
-      </c>
-      <c r="C67" t="str">
-        <f xml:space="preserve"> IF($A67&lt;=C$62,($B$5*(1-C33)*D66+$B$6*(1-C33)*D67+$B$5*C33*$B$59+$B$6*C33*$B$59)/(1 + C14),"")</f>
-        <v/>
-      </c>
-      <c r="D67" t="str">
-        <f xml:space="preserve"> IF($A67&lt;=D$62,($B$5*(1-D33)*E66+$B$6*(1-D33)*E67+$B$5*D33*$B$59+$B$6*D33*$B$59)/(1 + D14),"")</f>
-        <v/>
-      </c>
-      <c r="E67" t="str">
-        <f xml:space="preserve"> IF($A67&lt;=E$62,($B$5*(1-E33)*F66+$B$6*(1-E33)*F67+$B$5*E33*$B$59+$B$6*E33*$B$59)/(1 + E14),"")</f>
-        <v/>
-      </c>
-      <c r="F67" t="str">
-        <f xml:space="preserve"> IF($A67&lt;=F$62,($B$5*(1-F33)*G66+$B$6*(1-F33)*G67+$B$5*F33*$B$59+$B$6*F33*$B$59)/(1 + F14),"")</f>
-        <v/>
-      </c>
-      <c r="G67" t="str">
-        <f xml:space="preserve"> IF($A67&lt;=G$62,($B$5*(1-G33)*H66+$B$6*(1-G33)*H67+$B$5*G33*$B$59+$B$6*G33*$B$59)/(1 + G14),"")</f>
-        <v/>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:I67" ca="1" si="42">($B$5*I66+$B$6*I67)/(1+H14)</f>
-        <v>65.71773205065324</v>
-      </c>
-      <c r="I67">
-        <f t="shared" ca="1" si="42"/>
-        <v>73.292564122524965</v>
-      </c>
-      <c r="J67">
-        <f t="shared" ca="1" si="40"/>
-        <v>80.318308461926151</v>
-      </c>
-      <c r="K67">
-        <f t="shared" ca="1" si="40"/>
-        <v>86.676603465774178</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="39"/>
-        <v>92.297095617117222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="B81" t="str">
+        <f t="shared" ref="B81:G81" si="54" xml:space="preserve"> IF($A81&lt;=B$76,($B$5*(1-B33)*C80+$B$6*(1-B33)*C81+$B$5*B33*$B$73+$B$6*B33*$B$73)/(1 + B14),"")</f>
+        <v/>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="H81">
+        <f t="shared" ref="H81:I81" ca="1" si="55">($B$5*I80+$B$6*I81)/(1+H14)</f>
+        <v>64.492729144662732</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="55"/>
+        <v>71.930907849567234</v>
+      </c>
+      <c r="J81">
+        <f ca="1">($B$5*K80+$B$6*K81)/(1+J14)</f>
+        <v>78.828369761398889</v>
+      </c>
+      <c r="K81">
+        <f ca="1">($B$5*L80+$B$6*L81)/(1+K14)</f>
+        <v>85.068295323110476</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="51"/>
+        <v>90.581272156237162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>5</v>
       </c>
-      <c r="B68" t="str">
-        <f xml:space="preserve"> IF($A68&lt;=B$62,($B$5*(1-B34)*C67+$B$6*(1-B34)*C68+$B$5*B34*$B$59+$B$6*B34*$B$59)/(1 + B15),"")</f>
-        <v/>
-      </c>
-      <c r="C68" t="str">
-        <f xml:space="preserve"> IF($A68&lt;=C$62,($B$5*(1-C34)*D67+$B$6*(1-C34)*D68+$B$5*C34*$B$59+$B$6*C34*$B$59)/(1 + C15),"")</f>
-        <v/>
-      </c>
-      <c r="D68" t="str">
-        <f xml:space="preserve"> IF($A68&lt;=D$62,($B$5*(1-D34)*E67+$B$6*(1-D34)*E68+$B$5*D34*$B$59+$B$6*D34*$B$59)/(1 + D15),"")</f>
-        <v/>
-      </c>
-      <c r="E68" t="str">
-        <f xml:space="preserve"> IF($A68&lt;=E$62,($B$5*(1-E34)*F67+$B$6*(1-E34)*F68+$B$5*E34*$B$59+$B$6*E34*$B$59)/(1 + E15),"")</f>
-        <v/>
-      </c>
-      <c r="F68" t="str">
-        <f xml:space="preserve"> IF($A68&lt;=F$62,($B$5*(1-F34)*G67+$B$6*(1-F34)*G68+$B$5*F34*$B$59+$B$6*F34*$B$59)/(1 + F15),"")</f>
-        <v/>
-      </c>
-      <c r="G68">
-        <f t="shared" ref="G68" ca="1" si="43">($B$5*H67+$B$6*H68)/(1+G15)</f>
-        <v>62.693867592053458</v>
-      </c>
-      <c r="H68">
-        <f t="shared" ref="H68:I68" ca="1" si="44">($B$5*I67+$B$6*I68)/(1+H15)</f>
-        <v>69.766913203021474</v>
-      </c>
-      <c r="I68">
-        <f t="shared" ca="1" si="44"/>
-        <v>76.353690307951823</v>
-      </c>
-      <c r="J68">
-        <f t="shared" ca="1" si="40"/>
-        <v>82.349511077984133</v>
-      </c>
-      <c r="K68">
-        <f t="shared" ca="1" si="40"/>
-        <v>87.690760128378372</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="39"/>
-        <v>92.350318011890124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="B82" t="str">
+        <f xml:space="preserve"> IF($A82&lt;=B$76,($B$5*(1-B34)*C81+$B$6*(1-B34)*C82+$B$5*B34*$B$73+$B$6*B34*$B$73)/(1 + B15),"")</f>
+        <v/>
+      </c>
+      <c r="C82" t="str">
+        <f xml:space="preserve"> IF($A82&lt;=C$76,($B$5*(1-C34)*D81+$B$6*(1-C34)*D82+$B$5*C34*$B$73+$B$6*C34*$B$73)/(1 + C15),"")</f>
+        <v/>
+      </c>
+      <c r="D82" t="str">
+        <f xml:space="preserve"> IF($A82&lt;=D$76,($B$5*(1-D34)*E81+$B$6*(1-D34)*E82+$B$5*D34*$B$73+$B$6*D34*$B$73)/(1 + D15),"")</f>
+        <v/>
+      </c>
+      <c r="E82" t="str">
+        <f xml:space="preserve"> IF($A82&lt;=E$76,($B$5*(1-E34)*F81+$B$6*(1-E34)*F82+$B$5*E34*$B$73+$B$6*E34*$B$73)/(1 + E15),"")</f>
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <f xml:space="preserve"> IF($A82&lt;=F$76,($B$5*(1-F34)*G81+$B$6*(1-F34)*G82+$B$5*F34*$B$73+$B$6*F34*$B$73)/(1 + F15),"")</f>
+        <v/>
+      </c>
+      <c r="G82">
+        <f t="shared" ref="G82" ca="1" si="56">($B$5*H81+$B$6*H82)/(1+G15)</f>
+        <v>61.527215096117018</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ref="H82:I82" ca="1" si="57">($B$5*I81+$B$6*I82)/(1+H15)</f>
+        <v>68.470720566016055</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="57"/>
+        <v>74.93508349855459</v>
+      </c>
+      <c r="J82">
+        <f ca="1">($B$5*K81+$B$6*K82)/(1+J15)</f>
+        <v>80.81717704305612</v>
+      </c>
+      <c r="K82">
+        <f ca="1">($B$5*L81+$B$6*L82)/(1+K15)</f>
+        <v>86.054494717193521</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="51"/>
+        <v>90.620713747619106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>4</v>
       </c>
-      <c r="B69" t="str">
-        <f xml:space="preserve"> IF($A69&lt;=B$62,($B$5*(1-B35)*C68+$B$6*(1-B35)*C69+$B$5*B35*$B$59+$B$6*B35*$B$59)/(1 + B16),"")</f>
-        <v/>
-      </c>
-      <c r="C69" t="str">
-        <f xml:space="preserve"> IF($A69&lt;=C$62,($B$5*(1-C35)*D68+$B$6*(1-C35)*D69+$B$5*C35*$B$59+$B$6*C35*$B$59)/(1 + C16),"")</f>
-        <v/>
-      </c>
-      <c r="D69" t="str">
-        <f xml:space="preserve"> IF($A69&lt;=D$62,($B$5*(1-D35)*E68+$B$6*(1-D35)*E69+$B$5*D35*$B$59+$B$6*D35*$B$59)/(1 + D16),"")</f>
-        <v/>
-      </c>
-      <c r="E69" t="str">
-        <f xml:space="preserve"> IF($A69&lt;=E$62,($B$5*(1-E35)*F68+$B$6*(1-E35)*F69+$B$5*E35*$B$59+$B$6*E35*$B$59)/(1 + E16),"")</f>
-        <v/>
-      </c>
-      <c r="F69">
-        <f t="shared" ref="F69:G69" ca="1" si="45">($B$5*G68+$B$6*G69)/(1+F16)</f>
-        <v>60.481959362025265</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ca="1" si="45"/>
-        <v>67.125214802191195</v>
-      </c>
-      <c r="H69">
-        <f t="shared" ref="H69:I69" ca="1" si="46">($B$5*I68+$B$6*I69)/(1+H16)</f>
-        <v>73.328538830630876</v>
-      </c>
-      <c r="I69">
-        <f t="shared" ca="1" si="46"/>
-        <v>78.999572763165972</v>
-      </c>
-      <c r="J69">
-        <f t="shared" ca="1" si="40"/>
-        <v>84.081487158125782</v>
-      </c>
-      <c r="K69">
-        <f t="shared" ca="1" si="40"/>
-        <v>88.549048295769381</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="39"/>
-        <v>92.403166203047832</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="B83" t="str">
+        <f xml:space="preserve"> IF($A83&lt;=B$76,($B$5*(1-B35)*C82+$B$6*(1-B35)*C83+$B$5*B35*$B$73+$B$6*B35*$B$73)/(1 + B16),"")</f>
+        <v/>
+      </c>
+      <c r="C83" t="str">
+        <f xml:space="preserve"> IF($A83&lt;=C$76,($B$5*(1-C35)*D82+$B$6*(1-C35)*D83+$B$5*C35*$B$73+$B$6*C35*$B$73)/(1 + C16),"")</f>
+        <v/>
+      </c>
+      <c r="D83" t="str">
+        <f xml:space="preserve"> IF($A83&lt;=D$76,($B$5*(1-D35)*E82+$B$6*(1-D35)*E83+$B$5*D35*$B$73+$B$6*D35*$B$73)/(1 + D16),"")</f>
+        <v/>
+      </c>
+      <c r="E83" t="str">
+        <f xml:space="preserve"> IF($A83&lt;=E$76,($B$5*(1-E35)*F82+$B$6*(1-E35)*F83+$B$5*E35*$B$73+$B$6*E35*$B$73)/(1 + E16),"")</f>
+        <v/>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:G83" ca="1" si="58">($B$5*G82+$B$6*G83)/(1+F16)</f>
+        <v>59.356663538266531</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="58"/>
+        <v>65.876521089053639</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ref="H83:I83" ca="1" si="59">($B$5*I82+$B$6*I83)/(1+H16)</f>
+        <v>71.962804919474749</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="59"/>
+        <v>77.524746497685754</v>
+      </c>
+      <c r="J83">
+        <f ca="1">($B$5*K82+$B$6*K83)/(1+J16)</f>
+        <v>82.506756192530759</v>
+      </c>
+      <c r="K83">
+        <f ca="1">($B$5*L82+$B$6*L83)/(1+K16)</f>
+        <v>86.884583747526761</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="51"/>
+        <v>90.659942350489047</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>3</v>
       </c>
-      <c r="B70" t="str">
-        <f xml:space="preserve"> IF($A70&lt;=B$62,($B$5*(1-B36)*C69+$B$6*(1-B36)*C70+$B$5*B36*$B$59+$B$6*B36*$B$59)/(1 + B17),"")</f>
-        <v/>
-      </c>
-      <c r="C70" t="str">
-        <f xml:space="preserve"> IF($A70&lt;=C$62,($B$5*(1-C36)*D69+$B$6*(1-C36)*D70+$B$5*C36*$B$59+$B$6*C36*$B$59)/(1 + C17),"")</f>
-        <v/>
-      </c>
-      <c r="D70" t="str">
-        <f xml:space="preserve"> IF($A70&lt;=D$62,($B$5*(1-D36)*E69+$B$6*(1-D36)*E70+$B$5*D36*$B$59+$B$6*D36*$B$59)/(1 + D17),"")</f>
-        <v/>
-      </c>
-      <c r="E70">
-        <f t="shared" ref="E70" ca="1" si="47">($B$5*F69+$B$6*F70)/(1+E17)</f>
-        <v>58.911430346967798</v>
-      </c>
-      <c r="F70">
-        <f t="shared" ref="F70:G70" ca="1" si="48">($B$5*G69+$B$6*G70)/(1+F17)</f>
-        <v>65.182012711091758</v>
-      </c>
-      <c r="G70">
-        <f t="shared" ca="1" si="48"/>
-        <v>71.046963922654001</v>
-      </c>
-      <c r="H70">
-        <f t="shared" ref="H70:I70" ca="1" si="49">($B$5*I69+$B$6*I70)/(1+H17)</f>
-        <v>76.425033242142376</v>
-      </c>
-      <c r="I70">
-        <f t="shared" ca="1" si="49"/>
-        <v>81.266007054100513</v>
-      </c>
-      <c r="J70">
-        <f t="shared" ca="1" si="40"/>
-        <v>85.547236234148031</v>
-      </c>
-      <c r="K70">
-        <f t="shared" ca="1" si="40"/>
-        <v>89.268942391958049</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="39"/>
-        <v>92.449139108295029</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="B84" t="str">
+        <f xml:space="preserve"> IF($A84&lt;=B$76,($B$5*(1-B36)*C83+$B$6*(1-B36)*C84+$B$5*B36*$B$73+$B$6*B36*$B$73)/(1 + B17),"")</f>
+        <v/>
+      </c>
+      <c r="C84" t="str">
+        <f xml:space="preserve"> IF($A84&lt;=C$76,($B$5*(1-C36)*D83+$B$6*(1-C36)*D84+$B$5*C36*$B$73+$B$6*C36*$B$73)/(1 + C17),"")</f>
+        <v/>
+      </c>
+      <c r="D84" t="str">
+        <f xml:space="preserve"> IF($A84&lt;=D$76,($B$5*(1-D36)*E83+$B$6*(1-D36)*E84+$B$5*D36*$B$73+$B$6*D36*$B$73)/(1 + D17),"")</f>
+        <v/>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84" ca="1" si="60">($B$5*F83+$B$6*F84)/(1+E17)</f>
+        <v>57.814255155961938</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84:G84" ca="1" si="61">($B$5*G83+$B$6*G84)/(1+F17)</f>
+        <v>63.966924134915885</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="61"/>
+        <v>69.719925022899702</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ref="H84:I84" ca="1" si="62">($B$5*I83+$B$6*I84)/(1+H17)</f>
+        <v>74.993619962968467</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="62"/>
+        <v>79.739116873895995</v>
+      </c>
+      <c r="J84">
+        <f ca="1">($B$5*K83+$B$6*K84)/(1+J17)</f>
+        <v>83.934848237987424</v>
+      </c>
+      <c r="K84">
+        <f ca="1">($B$5*L83+$B$6*L84)/(1+K17)</f>
+        <v>87.581906572596225</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="51"/>
+        <v>90.698959185747171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>2</v>
       </c>
-      <c r="B71" t="str">
-        <f xml:space="preserve"> IF($A71&lt;=B$62,($B$5*(1-B37)*C70+$B$6*(1-B37)*C71+$B$5*B37*$B$59+$B$6*B37*$B$59)/(1 + B18),"")</f>
-        <v/>
-      </c>
-      <c r="C71" t="str">
-        <f xml:space="preserve"> IF($A71&lt;=C$62,($B$5*(1-C37)*D70+$B$6*(1-C37)*D71+$B$5*C37*$B$59+$B$6*C37*$B$59)/(1 + C18),"")</f>
-        <v/>
-      </c>
-      <c r="D71">
-        <f t="shared" ref="D71:E71" ca="1" si="50">($B$5*E70+$B$6*E71)/(1+D18)</f>
-        <v>57.854305892672258</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ca="1" si="50"/>
-        <v>63.797552451390054</v>
-      </c>
-      <c r="F71">
-        <f t="shared" ref="F71:G71" ca="1" si="51">($B$5*G70+$B$6*G71)/(1+F18)</f>
-        <v>69.360645653644738</v>
-      </c>
-      <c r="G71">
-        <f t="shared" ca="1" si="51"/>
-        <v>74.472364265149196</v>
-      </c>
-      <c r="H71">
-        <f t="shared" ref="H71:I71" ca="1" si="52">($B$5*I70+$B$6*I71)/(1+H18)</f>
-        <v>79.088828067620582</v>
-      </c>
-      <c r="I71">
-        <f t="shared" ca="1" si="52"/>
-        <v>83.190360872655702</v>
-      </c>
-      <c r="J71">
-        <f t="shared" ca="1" si="40"/>
-        <v>86.777377730358396</v>
-      </c>
-      <c r="K71">
-        <f t="shared" ca="1" si="40"/>
-        <v>89.865976892965065</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="39"/>
-        <v>92.48371147540368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="B85" t="str">
+        <f xml:space="preserve"> IF($A85&lt;=B$76,($B$5*(1-B37)*C84+$B$6*(1-B37)*C85+$B$5*B37*$B$73+$B$6*B37*$B$73)/(1 + B18),"")</f>
+        <v/>
+      </c>
+      <c r="C85" t="str">
+        <f xml:space="preserve"> IF($A85&lt;=C$76,($B$5*(1-C37)*D84+$B$6*(1-C37)*D85+$B$5*C37*$B$73+$B$6*C37*$B$73)/(1 + C18),"")</f>
+        <v/>
+      </c>
+      <c r="D85">
+        <f t="shared" ref="D85:E85" ca="1" si="63">($B$5*E84+$B$6*E85)/(1+D18)</f>
+        <v>56.774904276484207</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="63"/>
+        <v>62.605316814461069</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ref="F85:G85" ca="1" si="64">($B$5*G84+$B$6*G85)/(1+F18)</f>
+        <v>68.061428495101083</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="64"/>
+        <v>73.073632574107307</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ref="H85:I85" ca="1" si="65">($B$5*I84+$B$6*I85)/(1+H18)</f>
+        <v>77.599397240975577</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="65"/>
+        <v>81.620146316161453</v>
+      </c>
+      <c r="J85">
+        <f ca="1">($B$5*K84+$B$6*K85)/(1+J18)</f>
+        <v>85.137145898321322</v>
+      </c>
+      <c r="K85">
+        <f ca="1">($B$5*L84+$B$6*L85)/(1+K18)</f>
+        <v>88.167074988401751</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="51"/>
+        <v>90.737765467587735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>1</v>
       </c>
-      <c r="B72" t="str">
-        <f xml:space="preserve"> IF($A72&lt;=B$62,($B$5*(1-B38)*C71+$B$6*(1-B38)*C72+$B$5*B38*$B$59+$B$6*B38*$B$59)/(1 + B19),"")</f>
-        <v/>
-      </c>
-      <c r="C72">
-        <f t="shared" ref="C72" ca="1" si="53">($B$5*D71+$B$6*D72)/(1+C19)</f>
-        <v>57.212807797947782</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ref="D72:E72" ca="1" si="54">($B$5*E71+$B$6*E72)/(1+D19)</f>
-        <v>62.864718560997552</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="54"/>
-        <v>68.155491808143807</v>
-      </c>
-      <c r="F72">
-        <f t="shared" ref="F72:G72" ca="1" si="55">($B$5*G71+$B$6*G72)/(1+F19)</f>
-        <v>73.02299228274849</v>
-      </c>
-      <c r="G72">
-        <f t="shared" ca="1" si="55"/>
-        <v>77.429334051501371</v>
-      </c>
-      <c r="H72">
-        <f t="shared" ref="H72:I72" ca="1" si="56">($B$5*I71+$B$6*I72)/(1+H19)</f>
-        <v>81.357992503213055</v>
-      </c>
-      <c r="I72">
-        <f t="shared" ca="1" si="56"/>
-        <v>84.810143043024837</v>
-      </c>
-      <c r="J72">
-        <f t="shared" ca="1" si="40"/>
-        <v>87.800782950873369</v>
-      </c>
-      <c r="K72">
-        <f t="shared" ca="1" si="40"/>
-        <v>90.355021662108982</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="39"/>
-        <v>92.504767998095815</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="B86" t="str">
+        <f xml:space="preserve"> IF($A86&lt;=B$76,($B$5*(1-B38)*C85+$B$6*(1-B38)*C86+$B$5*B38*$B$73+$B$6*B38*$B$73)/(1 + B19),"")</f>
+        <v/>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86" ca="1" si="66">($B$5*D85+$B$6*D86)/(1+C19)</f>
+        <v>56.143108336876736</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ref="D86:E86" ca="1" si="67">($B$5*E85+$B$6*E86)/(1+D19)</f>
+        <v>61.687054314325685</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="67"/>
+        <v>66.875810191308545</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86:G86" ca="1" si="68">($B$5*G85+$B$6*G86)/(1+F19)</f>
+        <v>71.648826575561628</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="68"/>
+        <v>75.969539980110227</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86:I86" ca="1" si="69">($B$5*I85+$B$6*I86)/(1+H19)</f>
+        <v>79.822480389149391</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="69"/>
+        <v>83.209595871086094</v>
+      </c>
+      <c r="J86">
+        <f ca="1">($B$5*K85+$B$6*K86)/(1+J19)</f>
+        <v>86.146354836176712</v>
+      </c>
+      <c r="K86">
+        <f ca="1">($B$5*L85+$B$6*L86)/(1+K19)</f>
+        <v>88.658023475040437</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="51"/>
+        <v>90.776362403528822</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>0</v>
       </c>
-      <c r="B73" s="13">
-        <f t="shared" ref="B73:C73" ca="1" si="57">($B$5*C72+$B$6*C73)/(1+B20)</f>
-        <v>56.910886547753158</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ca="1" si="57"/>
-        <v>62.300053952333869</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ref="D73:E73" ca="1" si="58">($B$5*E72+$B$6*E73)/(1+D20)</f>
-        <v>67.342394199380223</v>
-      </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="58"/>
-        <v>71.984030520766424</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ref="F73:G73" ca="1" si="59">($B$5*G72+$B$6*G73)/(1+F20)</f>
-        <v>76.192704583748238</v>
-      </c>
-      <c r="G73">
-        <f t="shared" ca="1" si="59"/>
-        <v>79.955078463734822</v>
-      </c>
-      <c r="H73">
-        <f t="shared" ref="H73:I73" ca="1" si="60">($B$5*I72+$B$6*I73)/(1+H20)</f>
-        <v>83.27343185246167</v>
-      </c>
-      <c r="I73">
-        <f t="shared" ca="1" si="60"/>
-        <v>86.162212251608892</v>
-      </c>
-      <c r="J73">
-        <f t="shared" ca="1" si="40"/>
-        <v>88.644753454053046</v>
-      </c>
-      <c r="K73">
-        <f t="shared" ca="1" si="40"/>
-        <v>90.750351216047548</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="39"/>
-        <v>92.511788978503574</v>
+      <c r="B87" s="13">
+        <f t="shared" ref="B87:C87" ca="1" si="70">($B$5*C86+$B$6*C87)/(1+B20)</f>
+        <v>55.844648632594577</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="70"/>
+        <v>61.130653791571888</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ref="D87:E87" ca="1" si="71">($B$5*E86+$B$6*E87)/(1+D20)</f>
+        <v>66.076012110059565</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="71"/>
+        <v>70.628371009725413</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ref="F87:G87" ca="1" si="72">($B$5*G86+$B$6*G87)/(1+F20)</f>
+        <v>74.756723690498205</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="72"/>
+        <v>78.448696042219765</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ref="H87:I87" ca="1" si="73">($B$5*I86+$B$6*I87)/(1+H20)</f>
+        <v>81.707228747887157</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="73"/>
+        <v>84.547118759988777</v>
+      </c>
+      <c r="J87">
+        <f ca="1">($B$5*K86+$B$6*K87)/(1+J20)</f>
+        <v>86.991745164484257</v>
+      </c>
+      <c r="K87">
+        <f ca="1">($B$5*L86+$B$6*L87)/(1+K20)</f>
+        <v>89.070176237326734</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="51"/>
+        <v>90.814751194442778</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <f>1-B5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:L20" ca="1" si="0">IF($A10&lt;C$9, $B$4*OFFSET(C10,0,-1), IF($A10=C$9, $B$3*OFFSET(C10,1,-1),"") )</f>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12968712300500007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11789738455000007</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10610764609500006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10717944050000006</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6461496450000059E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6815346805000054E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7435855000000043E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.7692269500000045E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8923042550000044E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1030738295000048E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8578050000000033E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9720245000000037E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1748220500000029E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4573398450000027E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8116058605000027E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0525500000000028E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2472950000000022E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5225655000000021E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8703089500000021E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2832780550000021E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7549502495000021E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.320500000000002E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5884500000000026E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9296050000000024E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3366445000000019E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8029800500000018E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3226820450000016E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8904138405000017E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6550000000000012E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9895000000000011E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3905500000000009E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8514950000000008E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3663455000000011E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.929710950000001E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5367398550000012E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1830658695000014E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0500000000000012E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4450000000000012E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9005000000000014E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4104500000000012E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9694050000000008E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5724645000000006E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2152180500000009E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.893696245000001E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6043266205000009E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9500000000000009E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4550000000000006E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0095000000000006E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6085500000000006E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2476950000000004E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9229255000000006E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6306329500000006E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3675696550000007E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1308126895000008E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f>$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0500000000000008E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.645000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2805000000000008E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9524500000000009E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.657205000000001E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3914845000000011E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1523360500000012E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.937102445000001E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7433922005000008E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" ref="B29:L39" si="1">IF($A29&lt;=B$28,$B$24*($B$25)^($A29-0.5*B$28),"")</f>
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>1.0510100501E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>1.045794087133964E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>1.04060401E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>1.04060401E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>1.0354396902316473E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>1.030301E-2</v>
+      </c>
+      <c r="R31">
+        <f>COMBIN(4,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>1.0354396902316473E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>1.030301E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>1.025187812110542E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>1.0201E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1.030301E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1.025187812110542E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>1.0201E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>1.0150374377332098E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1.025187812110542E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>1.0201E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>1.0150374377332098E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>1.01E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>1.0049875621120889E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>1.0201E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1.0150374377332098E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1.01E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>1.0049875621120889E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>9.9503719020998926E-3</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>9.9009900990099011E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1.0150374377332098E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>1.01E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1.0049875621120889E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>9.9503719020998926E-3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>9.8518533684157344E-3</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>9.8029604940692086E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>1.01E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>1.0049875621120889E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>9.9503719020998926E-3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>9.8518533684157344E-3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>9.8029604940692086E-3</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>9.754310265758152E-3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>9.7059014792764461E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>1.0049875621120889E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>9.9503719020998926E-3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>9.8518533684157344E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>9.8029604940692086E-3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>9.754310265758152E-3</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>9.7059014792764461E-3</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>9.6577329363942109E-3</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>9.6098034448281622E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>IF($A39&lt;=B$28,$B$24*($B$25)^($A39-0.5*B$28),"")</f>
+        <v>0.01</v>
+      </c>
+      <c r="C39">
+        <f>IF($A39&lt;=C$28,$B$24*($B$25)^($A39-0.5*C$28),"")</f>
+        <v>9.9503719020998926E-3</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>9.8518533684157344E-3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>9.8029604940692086E-3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>9.754310265758152E-3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>9.7059014792764461E-3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>9.6577329363942109E-3</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>9.6098034448281622E-3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>9.56211181821209E-3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>9.5146568760674892E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" ref="B43:L53" si="2">IF($A43&lt;=B$42,COMBIN(B$42,$A43),"")</f>
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>83.999999999999986</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>209.99999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>209.99999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>83.999999999999986</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <f>IF($A53&lt;=B$42,COMBIN(B$42,$A53),"")</f>
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <v>4</v>
+      </c>
+      <c r="W57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <v>6</v>
+      </c>
+      <c r="Y57">
+        <v>7</v>
+      </c>
+      <c r="Z57">
+        <v>8</v>
+      </c>
+      <c r="AA57">
+        <v>9</v>
+      </c>
+      <c r="AB57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <f>K59*(1-K30)</f>
+        <v>0.90230631392602456</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="AB58">
+        <f>K59*(1-K30)</f>
+        <v>0.90230631392602456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="K59">
+        <f>J60*(1-J31)</f>
+        <v>0.91184230685510115</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ref="L59:L66" si="3">(K44/(K44+K45))*K59*(1-K30)+(K45/(K44+K45))*K60*(1-K31)</f>
+        <v>0.90272566795566533</v>
+      </c>
+      <c r="Q59">
+        <v>9</v>
+      </c>
+      <c r="AA59">
+        <f>J60*(1-J31)</f>
+        <v>0.91184230685510115</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" ref="AB59:AB66" si="4">$B$6*K59*(1-K30)+$B$5*K60*(1-K31)</f>
+        <v>0.90253928838693609</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="J60">
+        <f>I61*(1-I32)</f>
+        <v>0.92143075221199233</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ref="K60:K66" si="5">(J45/(J45+J46))*J60*(1-J31)+(J46/(J45+J46))*J61*(1-J32)</f>
+        <v>0.91221772725719763</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>0.90314270870458735</v>
+      </c>
+      <c r="Q60">
+        <v>8</v>
+      </c>
+      <c r="Z60">
+        <f>I61*(1-I32)</f>
+        <v>0.92143075221199233</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" ref="AA60:AA66" si="6">$B$6*J60*(1-J31)+$B$5*J61*(1-J32)</f>
+        <v>0.91205348083128046</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="4"/>
+        <v>0.90300379150830989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="I61">
+        <f>H62*(1-H33)</f>
+        <v>0.93107143539851811</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ref="J61:J66" si="7">(I46/(I46+I47))*I61*(1-I32)+(I47/(I46+I47))*I62*(1-I33)</f>
+        <v>0.92176157351702137</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>0.91259109282683926</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="3"/>
+        <v>0.90355744968421692</v>
+      </c>
+      <c r="Q61">
+        <v>7</v>
+      </c>
+      <c r="Y61">
+        <f>H62*(1-H33)</f>
+        <v>0.93107143539851811</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" ref="Z61:Z66" si="8">$B$6*I61*(1-I32)+$B$5*I62*(1-I33)</f>
+        <v>0.92161979295772323</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="6"/>
+        <v>0.91247450781991801</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="4"/>
+        <v>0.90346541267980407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <f>G63*(1-G34)</f>
+        <v>0.94076413771705836</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62:I66" si="9">(H47/(H47+H48))*H62*(1-H33)+(H48/(H47+H48))*H63*(1-H34)</f>
+        <v>0.93135699207343026</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="7"/>
+        <v>0.92209060711556212</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>0.91296241550060064</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="3"/>
+        <v>0.90396990433067059</v>
+      </c>
+      <c r="Q62">
+        <v>6</v>
+      </c>
+      <c r="X62">
+        <f>G63*(1-G34)</f>
+        <v>0.94076413771705836</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" ref="Y62:Y66" si="10">$B$6*H62*(1-H33)+$B$5*H63*(1-H34)</f>
+        <v>0.93123801012555019</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="8"/>
+        <v>0.92199668264485946</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="6"/>
+        <v>0.91289290183354466</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="4"/>
+        <v>0.90392417114069823</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <f>F64*(1-F35)</f>
+        <v>0.95050863641059791</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ref="H63:H64" si="11">(G48/(G48+G49))*G63*(1-G34)+(G49/(G48+G49))*G64*(1-G35)</f>
+        <v>0.94100376425171406</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="9"/>
+        <v>0.93164103689604549</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="7"/>
+        <v>0.92241786325357411</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>0.9133317071482262</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>0.90438008600509256</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+      <c r="W63">
+        <f>F64*(1-F35)</f>
+        <v>0.95050863641059791</v>
+      </c>
+      <c r="X63">
+        <f t="shared" ref="X63:X66" si="12">$B$6*G63*(1-G34)+$B$5*G64*(1-G35)</f>
+        <v>0.94090791363785176</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="10"/>
+        <v>0.93157010128300655</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="8"/>
+        <v>0.92237119692011227</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="6"/>
+        <v>0.91330868071687488</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="4"/>
+        <v>0.90438008600509256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <f>E65*(1-E36)</f>
+        <v>0.960304704703276</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ref="G64:H66" si="13">(F49/(F49+F50))*F64*(1-F35)+(F50/(F49+F50))*F65*(1-F36)</f>
+        <v>0.95070166740394912</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="11"/>
+        <v>0.94124216356544177</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="9"/>
+        <v>0.93192357830430794</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="7"/>
+        <v>0.92274335212023917</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>0.91369897957294477</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="3"/>
+        <v>0.90478800799399262</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="V64">
+        <f>E65*(1-E36)</f>
+        <v>0.960304704703276</v>
+      </c>
+      <c r="W64">
+        <f t="shared" ref="W64:W66" si="14">$B$6*F64*(1-F35)+$B$5*F65*(1-F36)</f>
+        <v>0.95062928078144238</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="12"/>
+        <v>0.94119454506374267</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="10"/>
+        <v>0.93190008323044826</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="8"/>
+        <v>0.92274335212023917</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="6"/>
+        <v>0.91372186219468332</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="4"/>
+        <v>0.90483317626258453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <f>D66*(1-D37)</f>
+        <v>0.97015211184142591</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:L67" si="15">(E50/(E50+E51))*E65*(1-E36)+(E51/(E50+E51))*E66*(1-E37)</f>
+        <v>0.96045047494927449</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="13"/>
+        <v>0.95089376463229403</v>
+      </c>
+      <c r="H65">
+        <f>(G50/(G50+G51))*G65*(1-G36)+(G51/(G50+G51))*G66*(1-G37)</f>
+        <v>0.94147934216915741</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="9"/>
+        <v>0.93220462469105203</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="7"/>
+        <v>0.92306708384823311</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>0.91406424451178625</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="3"/>
+        <v>0.90519368350958485</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <f>D66*(1-D37)</f>
+        <v>0.97015211184142591</v>
+      </c>
+      <c r="V65">
+        <f t="shared" ref="U65:AB67" si="16">$B$6*E65*(1-E36)+$B$5*E66*(1-E37)</f>
+        <v>0.96040188486727496</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="14"/>
+        <v>0.95086979138562622</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="12"/>
+        <v>0.94147934216915741</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="10"/>
+        <v>0.93222797068164964</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="8"/>
+        <v>0.92311316446880465</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="6"/>
+        <v>0.91413246387251468</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="4"/>
+        <v>0.90528346077894528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <f>C67*(1-C38)</f>
+        <v>0.98005062313509028</v>
+      </c>
+      <c r="E66">
+        <f>(D51/(D51+D52))*D66*(1-D37)+(D52/(D51+D52))*D67*(1-D38)</f>
+        <v>0.97024995641463907</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="15"/>
+        <v>0.96059561375653091</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="13"/>
+        <v>0.95108493255891946</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="13"/>
+        <v>0.94171530654199176</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="9"/>
+        <v>0.93248418440420777</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="7"/>
+        <v>0.9233890685139976</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>0.91442751363589636</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="3"/>
+        <v>0.90559712569012485</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <f>C67*(1-C38)</f>
+        <v>0.98005062313509028</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="16"/>
+        <v>0.97022549527133584</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="16"/>
+        <v>0.96059561375653091</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="14"/>
+        <v>0.95110875129390804</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="12"/>
+        <v>0.94176231792825038</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="10"/>
+        <v>0.93255377824548835</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="8"/>
+        <v>0.92348065007690439</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="6"/>
+        <v>0.91454050323739211</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="4"/>
+        <v>0.90573095829679295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <f>B68*(1-B39)</f>
+        <v>0.99</v>
+      </c>
+      <c r="D67">
+        <f>(C52/(C52+C53))*C67*(1-C38)+(C53/(C52+C53))*C68*(1-C39)</f>
+        <v>0.98009987747600569</v>
+      </c>
+      <c r="E67">
+        <f>(D52/(D52+D53))*D67*(1-D38)+(D53/(D52+D53))*D68*(1-D39)</f>
+        <v>0.97034748078991329</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="15"/>
+        <v>0.96074012341853909</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="15"/>
+        <v>0.95127517563035036</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="15"/>
+        <v>0.9419500631314065</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="15"/>
+        <v>0.93276226574700605</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="15"/>
+        <v>0.92370931613801011</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="15"/>
+        <v>0.91478879855084871</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="15"/>
+        <v>0.90599834760024522</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <f>B68*(1-B39)</f>
+        <v>0.99</v>
+      </c>
+      <c r="T67">
+        <f>$B$6*C67*(1-C38)+$B$5*C68*(1-C39)</f>
+        <v>0.98009987747600569</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="16"/>
+        <v>0.9703717818342471</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="16"/>
+        <v>0.96078808435529028</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="16"/>
+        <v>0.95134617162259971</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="16"/>
+        <v>0.9420434852201669</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="16"/>
+        <v>0.93287752042666283</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="16"/>
+        <v>0.92384582494388601</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="16"/>
+        <v>0.9149459976585228</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="16"/>
+        <v>0.9061756874362672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <f>B68*(1-B39)</f>
+        <v>0.99</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:L68" si="17">C68*(1-C39)</f>
+        <v>0.98014913181692109</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="17"/>
+        <v>0.97044468496724856</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="17"/>
+        <v>0.96088400622879278</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="17"/>
+        <v>0.95146449827634894</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="17"/>
+        <v>0.94218361835330755</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="17"/>
+        <v>0.93303887697818222</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="17"/>
+        <v>0.92402783668505384</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="17"/>
+        <v>0.91514811079696068</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="17"/>
+        <v>0.90639736223129463</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <f>B68*(1-B39)</f>
+        <v>0.99</v>
+      </c>
+      <c r="T68">
+        <f t="shared" ref="T68:AB68" si="18">C68*(1-C39)</f>
+        <v>0.98014913181692109</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="18"/>
+        <v>0.97044468496724856</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="18"/>
+        <v>0.96088400622879278</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="18"/>
+        <v>0.95146449827634894</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="18"/>
+        <v>0.94218361835330755</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="18"/>
+        <v>0.93303887697818222</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="18"/>
+        <v>0.92402783668505384</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="18"/>
+        <v>0.91514811079696068</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="18"/>
+        <v>0.90639736223129463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>8</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" ref="B77:K81" si="19" xml:space="preserve"> IF($A77&lt;=B$76,($B$5*(1-B29)*C76+$B$6*(1-B29)*C77+$B$5*B29*$B$73+$B$6*B29*$B$73)/(1 + B10),"")</f>
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L77">
+        <f>AB58*$B$74+AA59*K30*$B$73*$B$74</f>
+        <v>90.421351251183992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K78">
+        <f ca="1">($B$5*L77+$B$6*L78)/(1+K11)</f>
+        <v>80.895205658496437</v>
+      </c>
+      <c r="L78">
+        <f>AB59*$B$74+(0.5*AA59*K30+0.5*AA60*K31)*$B$73*$B$74</f>
+        <v>90.443726405351043</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="J79">
+        <f ca="1">($B$5*K78+$B$6*K79)/(1+J12)</f>
+        <v>73.792228005211669</v>
+      </c>
+      <c r="K79">
+        <f ca="1">($B$5*L78+$B$6*L79)/(1+K12)</f>
+        <v>82.507269773620934</v>
+      </c>
+      <c r="L79">
+        <f t="shared" ref="L79:L87" si="20">AB60*$B$74+(0.5*AA60*K31+0.5*AA61*K32)*$B$73*$B$74</f>
+        <v>90.488362562625511</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I80">
+        <f t="shared" ref="I80" ca="1" si="21">($B$5*J79+$B$6*J80)/(1+I13)</f>
+        <v>68.470092600321991</v>
+      </c>
+      <c r="J80">
+        <f ca="1">($B$5*K79+$B$6*K80)/(1+J13)</f>
+        <v>76.490841224315432</v>
+      </c>
+      <c r="K80">
+        <f ca="1">($B$5*L79+$B$6*L80)/(1+K13)</f>
+        <v>83.889723600858673</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="20"/>
+        <v>90.532749089608458</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H81">
+        <f t="shared" ref="H81:I87" ca="1" si="22">($B$5*I80+$B$6*I81)/(1+H14)</f>
+        <v>64.484210068994727</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="22"/>
+        <v>71.922098705071306</v>
+      </c>
+      <c r="J81">
+        <f ca="1">($B$5*K80+$B$6*K81)/(1+J14)</f>
+        <v>78.820650845192134</v>
+      </c>
+      <c r="K81">
+        <f ca="1">($B$5*L80+$B$6*L81)/(1+K14)</f>
+        <v>85.06206096311432</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="20"/>
+        <v>90.576865547718967</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="str">
+        <f xml:space="preserve"> IF($A82&lt;=B$76,($B$5*(1-B34)*C81+$B$6*(1-B34)*C82+$B$5*B34*$B$73+$B$6*B34*$B$73)/(1 + B15),"")</f>
+        <v/>
+      </c>
+      <c r="C82" t="str">
+        <f xml:space="preserve"> IF($A82&lt;=C$76,($B$5*(1-C34)*D81+$B$6*(1-C34)*D82+$B$5*C34*$B$73+$B$6*C34*$B$73)/(1 + C15),"")</f>
+        <v/>
+      </c>
+      <c r="D82" t="str">
+        <f xml:space="preserve"> IF($A82&lt;=D$76,($B$5*(1-D34)*E81+$B$6*(1-D34)*E82+$B$5*D34*$B$73+$B$6*D34*$B$73)/(1 + D15),"")</f>
+        <v/>
+      </c>
+      <c r="E82" t="str">
+        <f xml:space="preserve"> IF($A82&lt;=E$76,($B$5*(1-E34)*F81+$B$6*(1-E34)*F82+$B$5*E34*$B$73+$B$6*E34*$B$73)/(1 + E15),"")</f>
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <f xml:space="preserve"> IF($A82&lt;=F$76,($B$5*(1-F34)*G81+$B$6*(1-F34)*G82+$B$5*F34*$B$73+$B$6*F34*$B$73)/(1 + F15),"")</f>
+        <v/>
+      </c>
+      <c r="G82">
+        <f t="shared" ref="G82" ca="1" si="23">($B$5*H81+$B$6*H82)/(1+G15)</f>
+        <v>61.520192698473366</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="22"/>
+        <v>68.464063882233845</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="22"/>
+        <v>74.929614416464261</v>
+      </c>
+      <c r="J82">
+        <f ca="1">($B$5*K81+$B$6*K82)/(1+J15)</f>
+        <v>80.813244346159081</v>
+      </c>
+      <c r="K82">
+        <f ca="1">($B$5*L81+$B$6*L82)/(1+K15)</f>
+        <v>86.052401960479742</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="20"/>
+        <v>90.620713710397354</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" t="str">
+        <f xml:space="preserve"> IF($A83&lt;=B$76,($B$5*(1-B35)*C82+$B$6*(1-B35)*C83+$B$5*B35*$B$73+$B$6*B35*$B$73)/(1 + B16),"")</f>
+        <v/>
+      </c>
+      <c r="C83" t="str">
+        <f xml:space="preserve"> IF($A83&lt;=C$76,($B$5*(1-C35)*D82+$B$6*(1-C35)*D83+$B$5*C35*$B$73+$B$6*C35*$B$73)/(1 + C16),"")</f>
+        <v/>
+      </c>
+      <c r="D83" t="str">
+        <f xml:space="preserve"> IF($A83&lt;=D$76,($B$5*(1-D35)*E82+$B$6*(1-D35)*E83+$B$5*D35*$B$73+$B$6*D35*$B$73)/(1 + D16),"")</f>
+        <v/>
+      </c>
+      <c r="E83" t="str">
+        <f xml:space="preserve"> IF($A83&lt;=E$76,($B$5*(1-E35)*F82+$B$6*(1-E35)*F83+$B$5*E35*$B$73+$B$6*E35*$B$73)/(1 + E16),"")</f>
+        <v/>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:G87" ca="1" si="24">($B$5*G82+$B$6*G83)/(1+F16)</f>
+        <v>59.351180144660731</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="24"/>
+        <v>65.87177387582787</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="22"/>
+        <v>71.95934164126588</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="22"/>
+        <v>77.522878305922646</v>
+      </c>
+      <c r="J83">
+        <f ca="1">($B$5*K82+$B$6*K83)/(1+J16)</f>
+        <v>82.506753108395614</v>
+      </c>
+      <c r="K83">
+        <f ca="1">($B$5*L82+$B$6*L83)/(1+K16)</f>
+        <v>86.886670039709472</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="20"/>
+        <v>90.664295339631423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="str">
+        <f xml:space="preserve"> IF($A84&lt;=B$76,($B$5*(1-B36)*C83+$B$6*(1-B36)*C84+$B$5*B36*$B$73+$B$6*B36*$B$73)/(1 + B17),"")</f>
+        <v/>
+      </c>
+      <c r="C84" t="str">
+        <f xml:space="preserve"> IF($A84&lt;=C$76,($B$5*(1-C36)*D83+$B$6*(1-C36)*D84+$B$5*C36*$B$73+$B$6*C36*$B$73)/(1 + C17),"")</f>
+        <v/>
+      </c>
+      <c r="D84" t="str">
+        <f xml:space="preserve"> IF($A84&lt;=D$76,($B$5*(1-D36)*E83+$B$6*(1-D36)*E84+$B$5*D36*$B$73+$B$6*D36*$B$73)/(1 + D17),"")</f>
+        <v/>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84" ca="1" si="25">($B$5*F83+$B$6*F84)/(1+E17)</f>
+        <v>57.810274236898579</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="24"/>
+        <v>63.963915830067634</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="24"/>
+        <v>69.718295261591209</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="22"/>
+        <v>74.993648012363948</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="22"/>
+        <v>79.741043886080107</v>
+      </c>
+      <c r="J84">
+        <f ca="1">($B$5*K83+$B$6*K84)/(1+J17)</f>
+        <v>83.938873626510357</v>
+      </c>
+      <c r="K84">
+        <f ca="1">($B$5*L83+$B$6*L84)/(1+K17)</f>
+        <v>87.588187429726531</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="20"/>
+        <v>90.707612186020128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" t="str">
+        <f xml:space="preserve"> IF($A85&lt;=B$76,($B$5*(1-B37)*C84+$B$6*(1-B37)*C85+$B$5*B37*$B$73+$B$6*B37*$B$73)/(1 + B18),"")</f>
+        <v/>
+      </c>
+      <c r="C85" t="str">
+        <f xml:space="preserve"> IF($A85&lt;=C$76,($B$5*(1-C37)*D84+$B$6*(1-C37)*D85+$B$5*C37*$B$73+$B$6*C37*$B$73)/(1 + C18),"")</f>
+        <v/>
+      </c>
+      <c r="D85">
+        <f t="shared" ref="D85:E87" ca="1" si="26">($B$5*E84+$B$6*E85)/(1+D18)</f>
+        <v>56.772373716295256</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="26"/>
+        <v>62.603930415363656</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="24"/>
+        <v>68.061513022892811</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="24"/>
+        <v>73.075439675568148</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="22"/>
+        <v>77.603142797114529</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="22"/>
+        <v>81.626007768840566</v>
+      </c>
+      <c r="J85">
+        <f ca="1">($B$5*K84+$B$6*K85)/(1+J18)</f>
+        <v>85.145262211788904</v>
+      </c>
+      <c r="K85">
+        <f ca="1">($B$5*L84+$B$6*L85)/(1+K18)</f>
+        <v>88.177548672557791</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="20"/>
+        <v>90.750665988837184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="str">
+        <f xml:space="preserve"> IF($A86&lt;=B$76,($B$5*(1-B38)*C85+$B$6*(1-B38)*C86+$B$5*B38*$B$73+$B$6*B38*$B$73)/(1 + B19),"")</f>
+        <v/>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86" ca="1" si="27">($B$5*D85+$B$6*D86)/(1+C19)</f>
+        <v>56.141984152588037</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="26"/>
+        <v>61.687212845665492</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="26"/>
+        <v>66.877529347688224</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="24"/>
+        <v>71.652333537362694</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="24"/>
+        <v>75.975028025518341</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="22"/>
+        <v>79.830107001551838</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="22"/>
+        <v>83.219483021431174</v>
+      </c>
+      <c r="J86">
+        <f ca="1">($B$5*K85+$B$6*K86)/(1+J19)</f>
+        <v>86.1585908114766</v>
+      </c>
+      <c r="K86">
+        <f ca="1">($B$5*L85+$B$6*L86)/(1+K19)</f>
+        <v>88.672665508680154</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="20"/>
+        <v>90.793439270249465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87" s="13">
+        <f t="shared" ref="B87:C87" ca="1" si="28">($B$5*C86+$B$6*C87)/(1+B20)</f>
+        <v>55.844825093531895</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="28"/>
+        <v>61.132148543828947</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="26"/>
+        <v>66.078977610937002</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="26"/>
+        <v>70.632823060671669</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="24"/>
+        <v>74.762445385103618</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="24"/>
+        <v>78.45502678640554</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="22"/>
+        <v>81.712637447969712</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="22"/>
+        <v>84.548336450306863</v>
+      </c>
+      <c r="J87">
+        <f ca="1">($B$5*K86+$B$6*K87)/(1+J20)</f>
+        <v>86.982002811571022</v>
+      </c>
+      <c r="K87">
+        <f ca="1">($B$5*L86+$B$6*L87)/(1+K20)</f>
+        <v>89.03563012151281</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="20"/>
+        <v>90.727243708786119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
